--- a/data/misused_bar_graph_figures/nat_neurosci/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE50C2-AC92-114D-BA23-D004B8ECBD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433ED39F-BD28-6647-98C9-B23486BD35B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="59">
   <si>
     <t>DOI</t>
   </si>
@@ -158,13 +158,52 @@
   </si>
   <si>
     <t>Normalized PC density</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +217,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -221,17 +268,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,15 +597,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="273" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="245" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +624,23 @@
       <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -576,8 +656,23 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -593,8 +688,23 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -610,8 +720,23 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -627,8 +752,23 @@
       <c r="E5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -644,8 +784,23 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -661,8 +816,23 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -678,8 +848,23 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -695,8 +880,23 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -712,8 +912,23 @@
       <c r="E10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -729,8 +944,23 @@
       <c r="E11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -746,8 +976,23 @@
       <c r="E12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -763,8 +1008,23 @@
       <c r="E13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -780,8 +1040,23 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -797,8 +1072,23 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -814,8 +1104,23 @@
       <c r="E16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -831,8 +1136,23 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -848,8 +1168,23 @@
       <c r="E18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -865,8 +1200,23 @@
       <c r="E19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -882,8 +1232,23 @@
       <c r="E20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -899,8 +1264,23 @@
       <c r="E21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -916,8 +1296,23 @@
       <c r="E22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -933,8 +1328,23 @@
       <c r="E23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -950,8 +1360,23 @@
       <c r="E24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -967,8 +1392,23 @@
       <c r="E25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -984,8 +1424,23 @@
       <c r="E26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1001,8 +1456,23 @@
       <c r="E27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1488,23 @@
       <c r="E28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1035,8 +1520,23 @@
       <c r="E29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1052,8 +1552,23 @@
       <c r="E30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1068,6 +1583,21 @@
       </c>
       <c r="E31" t="s">
         <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_neurosci/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433ED39F-BD28-6647-98C9-B23486BD35B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC6119-7E8D-BF48-8FF3-0F6FE1066F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="90">
   <si>
     <t>DOI</t>
   </si>
@@ -197,6 +197,99 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01288-6_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01366-9_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01375-8_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01375-8_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01375-8_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01397-2_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01397-2_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01446-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01446-w_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig16</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig17</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig18</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig19</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig20</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig21</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01453-x_log_fig9</t>
   </si>
 </sst>
 </file>
@@ -597,102 +690,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="245" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:J31"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -701,30 +800,33 @@
         <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -733,30 +835,33 @@
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -765,30 +870,33 @@
         <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
@@ -797,158 +905,173 @@
         <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
       </c>
       <c r="I9" t="s">
         <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -957,30 +1080,33 @@
         <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
         <v>58</v>
@@ -989,30 +1115,33 @@
         <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
@@ -1021,30 +1150,33 @@
         <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
@@ -1053,30 +1185,33 @@
         <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
         <v>58</v>
@@ -1085,30 +1220,33 @@
         <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1117,30 +1255,33 @@
         <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
@@ -1149,30 +1290,33 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
@@ -1181,30 +1325,33 @@
         <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
@@ -1213,30 +1360,33 @@
         <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
         <v>58</v>
@@ -1245,30 +1395,33 @@
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1277,30 +1430,33 @@
         <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1309,30 +1465,33 @@
         <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
@@ -1341,30 +1500,33 @@
         <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
@@ -1373,30 +1535,33 @@
         <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
         <v>58</v>
@@ -1405,30 +1570,33 @@
         <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -1437,30 +1605,33 @@
         <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>28</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>44</v>
       </c>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
         <v>58</v>
@@ -1469,30 +1640,33 @@
         <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>44</v>
       </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
@@ -1501,30 +1675,33 @@
         <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>44</v>
       </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
@@ -1533,30 +1710,33 @@
         <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>44</v>
       </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
@@ -1565,30 +1745,33 @@
         <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>44</v>
       </c>
-      <c r="F31" t="s">
-        <v>57</v>
-      </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
@@ -1597,6 +1780,9 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_neurosci/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC6119-7E8D-BF48-8FF3-0F6FE1066F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703A304-67E9-3E4D-9620-B8F0290EDA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Cell number</t>
   </si>
   <si>
@@ -166,12 +163,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -290,6 +281,15 @@
   </si>
   <si>
     <t>10.1038:s41593-023-01453-x_log_fig9</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="245" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="245" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -718,27 +718,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -753,27 +753,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -788,27 +788,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -823,27 +823,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -858,27 +858,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -893,27 +893,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -928,27 +928,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -963,27 +963,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -998,27 +998,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1033,27 +1033,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1068,27 +1068,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1103,27 +1103,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1138,27 +1138,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1173,27 +1173,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1208,27 +1208,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1243,27 +1243,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1278,27 +1278,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1313,27 +1313,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1348,27 +1348,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1383,27 +1383,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1418,27 +1418,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1453,27 +1453,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1488,27 +1488,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1523,27 +1523,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1558,27 +1558,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1593,27 +1593,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1628,27 +1628,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1663,27 +1663,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1698,27 +1698,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1733,27 +1733,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1768,22 +1768,22 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
